--- a/WebMarket/WebMarket/App_Data/Ups.xlsx
+++ b/WebMarket/WebMarket/App_Data/Ups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>260 x 570 x 720</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Точність виходу=+1   -1 В&amp;Максимальна потужність=0.3 кВт&amp;Струм заряду=5 A</t>
+  </si>
+  <si>
+    <t>UPS-10000LE LOW</t>
   </si>
 </sst>
 </file>
@@ -1929,11 +1932,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3190,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
